--- a/New.xlsx
+++ b/New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Projetos Programação\UiPath\Compare Old and New Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297A61D-3537-4483-B46D-EDCF2E9617C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED74D9-298C-4520-8D79-8A5437ACE1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -383,13 +383,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -422,20 +415,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -443,10 +424,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,1124 +752,1182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>43983</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
         <v>95</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>50</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>44076</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>36</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>56</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>43834</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>60</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>75</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>43956</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>90</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>32</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>44049</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>90</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>44172</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>29</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>81</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>43839</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>43961</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>28</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>64</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>44054</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>15</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>96</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>44177</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>67</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="3">
         <v>74</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="3">
         <v>46</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>44198</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="3">
         <v>87</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>30</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>44380</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="3">
         <v>50</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>44473</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="3">
         <v>66</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="3">
         <v>96</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>53</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="3">
         <v>80</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="3">
         <v>5</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>44293</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <v>62</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="3">
         <v>55</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>44385</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="3">
         <v>42</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="3">
         <v>3</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>44478</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="3">
         <v>7</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>50</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="3">
         <v>76</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="3">
         <v>57</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="3">
         <v>14</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="3">
         <v>11</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>44298</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="3">
         <v>94</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="3">
         <v>28</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1895,1121 +1944,1127 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F44"/>
+      <selection sqref="A1:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>43983</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
         <v>95</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>50</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>44076</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>36</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>56</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>43834</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>60</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>75</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>43956</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>90</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>32</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>44049</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>90</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>44172</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>29</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>81</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>43839</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>43961</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>28</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>64</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>44054</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>15</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>96</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>44177</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>67</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="3">
         <v>74</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="3">
         <v>46</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>44198</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="3">
         <v>87</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>30</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>44380</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="3">
         <v>50</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>44473</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="3">
         <v>66</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="3">
         <v>96</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>53</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="3">
         <v>80</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="3">
         <v>5</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="7">
         <v>44293</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <v>62</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="3">
         <v>55</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="7">
         <v>44385</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="3">
         <v>42</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="3">
         <v>3</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="7">
         <v>44478</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="3">
         <v>7</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>50</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="3">
         <v>76</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="3">
         <v>57</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="3">
         <v>14</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="3">
         <v>11</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="7">
         <v>44298</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="3">
         <v>94</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="3">
         <v>28</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/New.xlsx
+++ b/New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Projetos Programação\UiPath\Compare Old and New Excel File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliosr\Documents\DANIEL\UiPath\Compare Old and New Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED74D9-298C-4520-8D79-8A5437ACE1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD98D99D-1065-4262-8842-D98CB530672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
       <c r="A2" s="7">
         <v>43983</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -836,7 +836,7 @@
       <c r="A4" s="7">
         <v>44076</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1055,7 +1055,7 @@
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1295,7 +1295,7 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1352,7 +1352,7 @@
       <c r="E25" s="3">
         <v>87</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="11">
         <v>30</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1664,7 +1664,7 @@
       <c r="E38" s="3">
         <v>7</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="11">
         <v>50</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -1778,7 +1778,7 @@
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="3">
@@ -1817,7 +1817,7 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1827,7 +1827,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1837,7 +1837,13 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -1941,15 +1947,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D03C5B-D26B-40BF-82E2-2D54EDA5FB43}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1972,11 +1978,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>43983</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1994,8 +2000,9 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2017,12 +2024,13 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44076</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2040,8 +2048,9 @@
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -2063,8 +2072,9 @@
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -2086,8 +2096,9 @@
       <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43834</v>
       </c>
@@ -2109,8 +2120,9 @@
       <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -2132,8 +2144,9 @@
       <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43956</v>
       </c>
@@ -2155,8 +2168,9 @@
       <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2178,8 +2192,9 @@
       <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44049</v>
       </c>
@@ -2201,8 +2216,9 @@
       <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -2224,15 +2240,16 @@
       <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44172</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2247,8 +2264,9 @@
       <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -2270,8 +2288,9 @@
       <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -2293,8 +2312,9 @@
       <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43839</v>
       </c>
@@ -2316,8 +2336,9 @@
       <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
@@ -2339,12 +2360,13 @@
       <c r="G17" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>43961</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2362,8 +2384,9 @@
       <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
@@ -2373,7 +2396,7 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="11" t="s">
         <v>108</v>
       </c>
       <c r="E19" s="3">
@@ -2385,8 +2408,9 @@
       <c r="G19" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44054</v>
       </c>
@@ -2408,8 +2432,9 @@
       <c r="G20" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
@@ -2431,15 +2456,16 @@
       <c r="G21" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44177</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2454,15 +2480,16 @@
       <c r="G22" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2477,8 +2504,9 @@
       <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
@@ -2500,8 +2528,9 @@
       <c r="G24" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44198</v>
       </c>
@@ -2511,20 +2540,21 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E25" s="3">
         <v>87</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="11">
         <v>30</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>71</v>
       </c>
@@ -2546,8 +2576,9 @@
       <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44380</v>
       </c>
@@ -2569,8 +2600,9 @@
       <c r="G27" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>74</v>
       </c>
@@ -2592,8 +2624,9 @@
       <c r="G28" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44473</v>
       </c>
@@ -2615,8 +2648,9 @@
       <c r="G29" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>77</v>
       </c>
@@ -2638,8 +2672,9 @@
       <c r="G30" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
@@ -2661,8 +2696,9 @@
       <c r="G31" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>81</v>
       </c>
@@ -2684,8 +2720,9 @@
       <c r="G32" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>83</v>
       </c>
@@ -2707,8 +2744,9 @@
       <c r="G33" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44293</v>
       </c>
@@ -2730,8 +2768,9 @@
       <c r="G34" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>86</v>
       </c>
@@ -2753,8 +2792,9 @@
       <c r="G35" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44385</v>
       </c>
@@ -2776,8 +2816,9 @@
       <c r="G36" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>91</v>
       </c>
@@ -2799,8 +2840,9 @@
       <c r="G37" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>44478</v>
       </c>
@@ -2816,14 +2858,15 @@
       <c r="E38" s="3">
         <v>7</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="11">
         <v>50</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
@@ -2845,8 +2888,9 @@
       <c r="G39" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
@@ -2868,8 +2912,9 @@
       <c r="G40" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>99</v>
       </c>
@@ -2891,8 +2936,9 @@
       <c r="G41" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>101</v>
       </c>
@@ -2914,8 +2960,9 @@
       <c r="G42" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>44298</v>
       </c>
@@ -2925,7 +2972,7 @@
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="3">
@@ -2937,8 +2984,9 @@
       <c r="G43" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>105</v>
       </c>
@@ -2960,23 +3008,24 @@
       <c r="G44" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
